--- a/excels/clean/camp_route_north_python.xlsx
+++ b/excels/clean/camp_route_north_python.xlsx
@@ -1747,7 +1747,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1907,8 +1907,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2086,6 +2093,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2333,11 +2346,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2664,18 +2686,19 @@
   <dimension ref="A1:CX474"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.9"/>
   <cols>
     <col min="1" max="1" width="4.06640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.46484375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.53125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.06640625" customWidth="1"/>
+    <col min="19" max="19" width="10.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:102" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:102">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2980,7 +3003,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:102" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:102">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2993,44 +3016,35 @@
       <c r="D2">
         <v>5240</v>
       </c>
+      <c r="E2" s="1">
+        <v>36635</v>
+      </c>
+      <c r="F2">
+        <v>6400</v>
+      </c>
       <c r="G2" s="1">
-        <v>36633</v>
+        <v>36638</v>
+      </c>
+      <c r="H2">
+        <v>7040</v>
       </c>
       <c r="I2" s="1">
-        <v>36634</v>
+        <v>36650</v>
       </c>
       <c r="J2">
-        <v>5500</v>
+        <v>7450</v>
       </c>
       <c r="K2" s="1">
-        <v>36635</v>
+        <v>36662</v>
       </c>
       <c r="L2">
-        <v>6400</v>
-      </c>
-      <c r="M2" s="1">
-        <v>36638</v>
-      </c>
-      <c r="N2">
-        <v>7040</v>
-      </c>
-      <c r="O2" s="1">
-        <v>36650</v>
-      </c>
-      <c r="P2">
-        <v>7450</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>36662</v>
-      </c>
-      <c r="R2">
         <v>8200</v>
       </c>
       <c r="S2" s="1">
         <v>36663</v>
       </c>
     </row>
-    <row r="3" spans="1:102" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:102">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3071,7 +3085,7 @@
         <v>36663</v>
       </c>
     </row>
-    <row r="4" spans="1:102" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:102">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3100,7 +3114,7 @@
         <v>36665</v>
       </c>
     </row>
-    <row r="5" spans="1:102" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:102">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3138,7 +3152,7 @@
         <v>36526</v>
       </c>
     </row>
-    <row r="6" spans="1:102" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:102">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3179,7 +3193,7 @@
         <v>36526</v>
       </c>
     </row>
-    <row r="7" spans="1:102" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:102">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3223,7 +3237,7 @@
         <v>36674</v>
       </c>
     </row>
-    <row r="8" spans="1:102" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:102">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3261,7 +3275,7 @@
         <v>36664</v>
       </c>
     </row>
-    <row r="9" spans="1:102" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:102">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3302,7 +3316,7 @@
         <v>36663</v>
       </c>
     </row>
-    <row r="10" spans="1:102" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:102">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3337,7 +3351,7 @@
         <v>8300</v>
       </c>
     </row>
-    <row r="11" spans="1:102" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:102">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3372,7 +3386,7 @@
         <v>36667</v>
       </c>
     </row>
-    <row r="12" spans="1:102" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:102">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3413,7 +3427,7 @@
         <v>36673</v>
       </c>
     </row>
-    <row r="13" spans="1:102" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:102">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3451,7 +3465,7 @@
         <v>37033</v>
       </c>
     </row>
-    <row r="14" spans="1:102" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:102">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3483,7 +3497,7 @@
         <v>37033</v>
       </c>
     </row>
-    <row r="15" spans="1:102" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:102">
       <c r="A15">
         <v>13</v>
       </c>
@@ -3521,7 +3535,7 @@
         <v>37034</v>
       </c>
     </row>
-    <row r="16" spans="1:102" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:102">
       <c r="A16">
         <v>14</v>
       </c>
@@ -3556,7 +3570,7 @@
         <v>37030</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:20">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3600,7 +3614,7 @@
         <v>37036</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:20">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3647,7 +3661,7 @@
         <v>37034</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:20">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3685,7 +3699,7 @@
         <v>37034</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:20">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3723,7 +3737,7 @@
         <v>37033</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:20">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3761,7 +3775,7 @@
         <v>37033</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:20">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3802,7 +3816,7 @@
         <v>37034</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:20">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3840,7 +3854,7 @@
         <v>37005</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:20">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3878,7 +3892,7 @@
         <v>37034</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:20">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3904,7 +3918,7 @@
         <v>37033</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:20">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3914,14 +3928,12 @@
       <c r="C26" s="1">
         <v>36995</v>
       </c>
-      <c r="K26" s="1">
-        <v>36892</v>
-      </c>
+      <c r="K26" s="1"/>
       <c r="S26" s="1">
         <v>37034</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:20">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3959,7 +3971,7 @@
         <v>37034</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:20">
       <c r="A28">
         <v>26</v>
       </c>
@@ -4000,7 +4012,7 @@
         <v>36892</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:20">
       <c r="A29">
         <v>27</v>
       </c>
@@ -4038,7 +4050,7 @@
         <v>36892</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:20">
       <c r="A30">
         <v>28</v>
       </c>
@@ -4076,7 +4088,7 @@
         <v>36892</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:20">
       <c r="A31">
         <v>29</v>
       </c>
@@ -4114,7 +4126,7 @@
         <v>37393</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:20">
       <c r="A32">
         <v>30</v>
       </c>
@@ -4152,7 +4164,7 @@
         <v>37393</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:28">
       <c r="A33">
         <v>31</v>
       </c>
@@ -4190,7 +4202,7 @@
         <v>37257</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:28">
       <c r="A34">
         <v>32</v>
       </c>
@@ -4231,7 +4243,7 @@
         <v>37393</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:28">
       <c r="A35">
         <v>33</v>
       </c>
@@ -4278,7 +4290,7 @@
         <v>37257</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:28">
       <c r="A36">
         <v>34</v>
       </c>
@@ -4325,7 +4337,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:28">
       <c r="A37">
         <v>35</v>
       </c>
@@ -4363,7 +4375,7 @@
         <v>37400</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:28">
       <c r="A38">
         <v>36</v>
       </c>
@@ -4407,7 +4419,7 @@
         <v>8300</v>
       </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:28">
       <c r="A39">
         <v>37</v>
       </c>
@@ -4445,7 +4457,7 @@
         <v>37393</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:28">
       <c r="A40">
         <v>38</v>
       </c>
@@ -4492,7 +4504,7 @@
         <v>5800</v>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:28">
       <c r="A41">
         <v>39</v>
       </c>
@@ -4539,7 +4551,7 @@
         <v>5100</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:28">
       <c r="A42">
         <v>40</v>
       </c>
@@ -4586,7 +4598,7 @@
         <v>37257</v>
       </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:28">
       <c r="A43">
         <v>41</v>
       </c>
@@ -4633,7 +4645,7 @@
         <v>37392</v>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:28">
       <c r="A44">
         <v>42</v>
       </c>
@@ -4680,7 +4692,7 @@
         <v>5800</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:28">
       <c r="A45">
         <v>43</v>
       </c>
@@ -4718,7 +4730,7 @@
         <v>37392</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:28">
       <c r="A46">
         <v>44</v>
       </c>
@@ -4756,7 +4768,7 @@
         <v>37401</v>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:28">
       <c r="A47">
         <v>45</v>
       </c>
@@ -4809,7 +4821,7 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:28">
       <c r="A48">
         <v>46</v>
       </c>
@@ -4847,7 +4859,7 @@
         <v>37393</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:30">
       <c r="A49">
         <v>47</v>
       </c>
@@ -4885,7 +4897,7 @@
         <v>37393</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:30">
       <c r="A50">
         <v>48</v>
       </c>
@@ -4926,7 +4938,7 @@
         <v>37393</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:30">
       <c r="A51">
         <v>49</v>
       </c>
@@ -4964,7 +4976,7 @@
         <v>37771</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:30">
       <c r="A52">
         <v>50</v>
       </c>
@@ -5002,7 +5014,7 @@
         <v>37767</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:30">
       <c r="A53">
         <v>51</v>
       </c>
@@ -5037,7 +5049,7 @@
         <v>37762</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:30">
       <c r="A54">
         <v>52</v>
       </c>
@@ -5078,7 +5090,7 @@
         <v>37763</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:30">
       <c r="A55">
         <v>53</v>
       </c>
@@ -5119,7 +5131,7 @@
         <v>37763</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:30">
       <c r="A56">
         <v>54</v>
       </c>
@@ -5166,7 +5178,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:30">
       <c r="A57">
         <v>55</v>
       </c>
@@ -5204,7 +5216,7 @@
         <v>37762</v>
       </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:30">
       <c r="A58">
         <v>56</v>
       </c>
@@ -5251,7 +5263,7 @@
         <v>37622</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:30">
       <c r="A59">
         <v>57</v>
       </c>
@@ -5292,7 +5304,7 @@
         <v>37761</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:30">
       <c r="A60">
         <v>58</v>
       </c>
@@ -5339,7 +5351,7 @@
         <v>37771</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:30">
       <c r="A61">
         <v>59</v>
       </c>
@@ -5380,7 +5392,7 @@
         <v>37763</v>
       </c>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:30">
       <c r="A62">
         <v>60</v>
       </c>
@@ -5421,7 +5433,7 @@
         <v>37763</v>
       </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:30">
       <c r="A63">
         <v>61</v>
       </c>
@@ -5468,7 +5480,7 @@
         <v>37622</v>
       </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:30">
       <c r="A64">
         <v>62</v>
       </c>
@@ -5515,7 +5527,7 @@
         <v>37762</v>
       </c>
     </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:32">
       <c r="A65">
         <v>63</v>
       </c>
@@ -5556,7 +5568,7 @@
         <v>37622</v>
       </c>
     </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:32">
       <c r="A66">
         <v>64</v>
       </c>
@@ -5594,7 +5606,7 @@
         <v>37762</v>
       </c>
     </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:32">
       <c r="A67">
         <v>65</v>
       </c>
@@ -5635,7 +5647,7 @@
         <v>37763</v>
       </c>
     </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:32">
       <c r="A68">
         <v>66</v>
       </c>
@@ -5676,7 +5688,7 @@
         <v>37622</v>
       </c>
     </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:32">
       <c r="A69">
         <v>67</v>
       </c>
@@ -5714,7 +5726,7 @@
         <v>37762</v>
       </c>
     </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:32">
       <c r="A70">
         <v>68</v>
       </c>
@@ -5755,7 +5767,7 @@
         <v>37762</v>
       </c>
     </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:32">
       <c r="A71">
         <v>69</v>
       </c>
@@ -5802,7 +5814,7 @@
         <v>38127</v>
       </c>
     </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:32">
       <c r="A72">
         <v>70</v>
       </c>
@@ -5840,7 +5852,7 @@
         <v>38125</v>
       </c>
     </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:32">
       <c r="A73">
         <v>71</v>
       </c>
@@ -5878,7 +5890,7 @@
         <v>38124</v>
       </c>
     </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:32">
       <c r="A74">
         <v>72</v>
       </c>
@@ -5919,7 +5931,7 @@
         <v>37987</v>
       </c>
     </row>
-    <row r="75" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:32">
       <c r="A75">
         <v>73</v>
       </c>
@@ -5960,7 +5972,7 @@
         <v>38131</v>
       </c>
     </row>
-    <row r="76" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:32">
       <c r="A76">
         <v>74</v>
       </c>
@@ -5998,7 +6010,7 @@
         <v>38125</v>
       </c>
     </row>
-    <row r="77" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:32">
       <c r="A77">
         <v>75</v>
       </c>
@@ -6045,7 +6057,7 @@
         <v>5800</v>
       </c>
     </row>
-    <row r="78" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:32">
       <c r="A78">
         <v>76</v>
       </c>
@@ -6092,7 +6104,7 @@
         <v>5800</v>
       </c>
     </row>
-    <row r="79" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:32">
       <c r="A79">
         <v>77</v>
       </c>
@@ -6130,7 +6142,7 @@
         <v>38134</v>
       </c>
     </row>
-    <row r="80" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:32">
       <c r="A80">
         <v>78</v>
       </c>
@@ -6162,7 +6174,7 @@
         <v>38124</v>
       </c>
     </row>
-    <row r="81" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:36">
       <c r="A81">
         <v>79</v>
       </c>
@@ -6200,7 +6212,7 @@
         <v>38127</v>
       </c>
     </row>
-    <row r="82" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:36">
       <c r="A82">
         <v>80</v>
       </c>
@@ -6241,7 +6253,7 @@
         <v>38127</v>
       </c>
     </row>
-    <row r="83" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:36">
       <c r="A83">
         <v>81</v>
       </c>
@@ -6251,6 +6263,12 @@
       <c r="C83" s="1">
         <v>38076</v>
       </c>
+      <c r="E83" s="1">
+        <v>38079</v>
+      </c>
+      <c r="F83">
+        <v>6200</v>
+      </c>
       <c r="G83" s="1">
         <v>38097</v>
       </c>
@@ -6258,29 +6276,18 @@
         <v>7100</v>
       </c>
       <c r="I83" s="1">
-        <v>38105</v>
+        <v>38118</v>
       </c>
       <c r="J83">
-        <v>7500</v>
+        <v>7800</v>
       </c>
       <c r="K83" s="1">
-        <v>38118</v>
+        <v>38134</v>
       </c>
       <c r="L83">
-        <v>7800</v>
-      </c>
-      <c r="M83" s="1">
-        <v>38134</v>
-      </c>
-      <c r="N83">
         <v>8250</v>
       </c>
-      <c r="O83" s="1">
-        <v>38135</v>
-      </c>
-      <c r="P83">
-        <v>8600</v>
-      </c>
+      <c r="M83" s="1"/>
       <c r="S83" s="1">
         <v>38137</v>
       </c>
@@ -6297,7 +6304,7 @@
         <v>6200</v>
       </c>
     </row>
-    <row r="84" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:36">
       <c r="A84">
         <v>82</v>
       </c>
@@ -6338,7 +6345,7 @@
         <v>37987</v>
       </c>
     </row>
-    <row r="85" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:36">
       <c r="A85">
         <v>83</v>
       </c>
@@ -6376,7 +6383,7 @@
         <v>38125</v>
       </c>
     </row>
-    <row r="86" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:36">
       <c r="A86">
         <v>84</v>
       </c>
@@ -6417,7 +6424,7 @@
         <v>38127</v>
       </c>
     </row>
-    <row r="87" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:36">
       <c r="A87">
         <v>85</v>
       </c>
@@ -6455,7 +6462,7 @@
         <v>38127</v>
       </c>
     </row>
-    <row r="88" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:36">
       <c r="A88">
         <v>86</v>
       </c>
@@ -6493,7 +6500,7 @@
         <v>38127</v>
       </c>
     </row>
-    <row r="89" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:36">
       <c r="A89">
         <v>87</v>
       </c>
@@ -6531,7 +6538,7 @@
         <v>38127</v>
       </c>
     </row>
-    <row r="90" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:36">
       <c r="A90">
         <v>88</v>
       </c>
@@ -6572,7 +6579,7 @@
         <v>38126</v>
       </c>
     </row>
-    <row r="91" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:36">
       <c r="A91">
         <v>89</v>
       </c>
@@ -6610,7 +6617,7 @@
         <v>38127</v>
       </c>
     </row>
-    <row r="92" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:36">
       <c r="A92">
         <v>90</v>
       </c>
@@ -6648,7 +6655,7 @@
         <v>38125</v>
       </c>
     </row>
-    <row r="93" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:36">
       <c r="A93">
         <v>91</v>
       </c>
@@ -6695,7 +6702,7 @@
         <v>38130</v>
       </c>
     </row>
-    <row r="94" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:36">
       <c r="A94">
         <v>92</v>
       </c>
@@ -6721,7 +6728,7 @@
         <v>8300</v>
       </c>
     </row>
-    <row r="95" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:36">
       <c r="A95">
         <v>93</v>
       </c>
@@ -6765,7 +6772,7 @@
         <v>37987</v>
       </c>
     </row>
-    <row r="96" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:36">
       <c r="A96">
         <v>94</v>
       </c>
@@ -6797,7 +6804,7 @@
         <v>38499</v>
       </c>
     </row>
-    <row r="97" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:37">
       <c r="A97">
         <v>95</v>
       </c>
@@ -6838,7 +6845,7 @@
         <v>38501</v>
       </c>
     </row>
-    <row r="98" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:37">
       <c r="A98">
         <v>96</v>
       </c>
@@ -6867,7 +6874,7 @@
         <v>38505</v>
       </c>
     </row>
-    <row r="99" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:37">
       <c r="A99">
         <v>97</v>
       </c>
@@ -6908,7 +6915,7 @@
         <v>38493</v>
       </c>
     </row>
-    <row r="100" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:37">
       <c r="A100">
         <v>98</v>
       </c>
@@ -6946,7 +6953,7 @@
         <v>38501</v>
       </c>
     </row>
-    <row r="101" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:37">
       <c r="A101">
         <v>99</v>
       </c>
@@ -6987,7 +6994,7 @@
         <v>38493</v>
       </c>
     </row>
-    <row r="102" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:37">
       <c r="A102">
         <v>100</v>
       </c>
@@ -7025,7 +7032,7 @@
         <v>38501</v>
       </c>
     </row>
-    <row r="103" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:37">
       <c r="A103">
         <v>101</v>
       </c>
@@ -7066,7 +7073,7 @@
         <v>38505</v>
       </c>
     </row>
-    <row r="104" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:37">
       <c r="A104">
         <v>102</v>
       </c>
@@ -7107,7 +7114,7 @@
         <v>38502</v>
       </c>
     </row>
-    <row r="105" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:37">
       <c r="A105">
         <v>103</v>
       </c>
@@ -7145,7 +7152,7 @@
         <v>8300</v>
       </c>
     </row>
-    <row r="106" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:37">
       <c r="A106">
         <v>104</v>
       </c>
@@ -7186,7 +7193,7 @@
         <v>38501</v>
       </c>
     </row>
-    <row r="107" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:37">
       <c r="A107">
         <v>105</v>
       </c>
@@ -7227,7 +7234,7 @@
         <v>38502</v>
       </c>
     </row>
-    <row r="108" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:37">
       <c r="A108">
         <v>106</v>
       </c>
@@ -7268,7 +7275,7 @@
         <v>38501</v>
       </c>
     </row>
-    <row r="109" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:37">
       <c r="A109">
         <v>107</v>
       </c>
@@ -7312,7 +7319,7 @@
         <v>38493</v>
       </c>
     </row>
-    <row r="110" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:37">
       <c r="A110">
         <v>108</v>
       </c>
@@ -7341,7 +7348,7 @@
         <v>38493</v>
       </c>
     </row>
-    <row r="111" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:37">
       <c r="A111">
         <v>109</v>
       </c>
@@ -7382,7 +7389,7 @@
         <v>38505</v>
       </c>
     </row>
-    <row r="112" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:37">
       <c r="A112">
         <v>110</v>
       </c>
@@ -7423,7 +7430,7 @@
         <v>38502</v>
       </c>
     </row>
-    <row r="113" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:39">
       <c r="A113">
         <v>111</v>
       </c>
@@ -7464,7 +7471,7 @@
         <v>38507</v>
       </c>
     </row>
-    <row r="114" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:39">
       <c r="A114">
         <v>112</v>
       </c>
@@ -7505,7 +7512,7 @@
         <v>38505</v>
       </c>
     </row>
-    <row r="115" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:39">
       <c r="A115">
         <v>113</v>
       </c>
@@ -7549,7 +7556,7 @@
         <v>38506</v>
       </c>
     </row>
-    <row r="116" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:39">
       <c r="A116">
         <v>114</v>
       </c>
@@ -7590,7 +7597,7 @@
         <v>38505</v>
       </c>
     </row>
-    <row r="117" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:39">
       <c r="A117">
         <v>115</v>
       </c>
@@ -7634,7 +7641,7 @@
         <v>38507</v>
       </c>
     </row>
-    <row r="118" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:39">
       <c r="A118">
         <v>116</v>
       </c>
@@ -7666,7 +7673,7 @@
         <v>7400</v>
       </c>
     </row>
-    <row r="119" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:39">
       <c r="A119">
         <v>117</v>
       </c>
@@ -7692,7 +7699,7 @@
         <v>38353</v>
       </c>
     </row>
-    <row r="120" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:39">
       <c r="A120">
         <v>118</v>
       </c>
@@ -7733,7 +7740,7 @@
         <v>38502</v>
       </c>
     </row>
-    <row r="121" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:39">
       <c r="A121">
         <v>119</v>
       </c>
@@ -7780,7 +7787,7 @@
         <v>38507</v>
       </c>
     </row>
-    <row r="122" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:39">
       <c r="A122">
         <v>120</v>
       </c>
@@ -7821,7 +7828,7 @@
         <v>38502</v>
       </c>
     </row>
-    <row r="123" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:39">
       <c r="A123">
         <v>121</v>
       </c>
@@ -7862,7 +7869,7 @@
         <v>38504</v>
       </c>
     </row>
-    <row r="124" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:39">
       <c r="A124">
         <v>122</v>
       </c>
@@ -7903,7 +7910,7 @@
         <v>38508</v>
       </c>
     </row>
-    <row r="125" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:39">
       <c r="A125">
         <v>123</v>
       </c>
@@ -7944,7 +7951,7 @@
         <v>38507</v>
       </c>
     </row>
-    <row r="126" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:39">
       <c r="A126">
         <v>124</v>
       </c>
@@ -7985,7 +7992,7 @@
         <v>38501</v>
       </c>
     </row>
-    <row r="127" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:39">
       <c r="A127">
         <v>125</v>
       </c>
@@ -8020,7 +8027,7 @@
         <v>38493</v>
       </c>
     </row>
-    <row r="128" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:39">
       <c r="A128">
         <v>126</v>
       </c>
@@ -8061,7 +8068,7 @@
         <v>38494</v>
       </c>
     </row>
-    <row r="129" spans="1:46" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:46">
       <c r="A129">
         <v>127</v>
       </c>
@@ -8099,7 +8106,7 @@
         <v>38848</v>
       </c>
     </row>
-    <row r="130" spans="1:46" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:46">
       <c r="A130">
         <v>128</v>
       </c>
@@ -8140,7 +8147,7 @@
         <v>38854</v>
       </c>
     </row>
-    <row r="131" spans="1:46" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:46">
       <c r="A131">
         <v>129</v>
       </c>
@@ -8181,7 +8188,7 @@
         <v>38854</v>
       </c>
     </row>
-    <row r="132" spans="1:46" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:46">
       <c r="A132">
         <v>130</v>
       </c>
@@ -8219,7 +8226,7 @@
         <v>38854</v>
       </c>
     </row>
-    <row r="133" spans="1:46" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:46">
       <c r="A133">
         <v>131</v>
       </c>
@@ -8257,7 +8264,7 @@
         <v>38852</v>
       </c>
     </row>
-    <row r="134" spans="1:46" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:46">
       <c r="A134">
         <v>132</v>
       </c>
@@ -8298,7 +8305,7 @@
         <v>38852</v>
       </c>
     </row>
-    <row r="135" spans="1:46" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:46">
       <c r="A135">
         <v>133</v>
       </c>
@@ -8339,7 +8346,7 @@
         <v>38854</v>
       </c>
     </row>
-    <row r="136" spans="1:46" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:46">
       <c r="A136">
         <v>134</v>
       </c>
@@ -8392,7 +8399,7 @@
         <v>5141</v>
       </c>
     </row>
-    <row r="137" spans="1:46" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:46">
       <c r="A137">
         <v>135</v>
       </c>
@@ -8433,7 +8440,7 @@
         <v>38850</v>
       </c>
     </row>
-    <row r="138" spans="1:46" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:46">
       <c r="A138">
         <v>136</v>
       </c>
@@ -8474,7 +8481,7 @@
         <v>38855</v>
       </c>
     </row>
-    <row r="139" spans="1:46" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:46">
       <c r="A139">
         <v>137</v>
       </c>
@@ -8506,7 +8513,7 @@
         <v>38851</v>
       </c>
     </row>
-    <row r="140" spans="1:46" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:46">
       <c r="A140">
         <v>138</v>
       </c>
@@ -8547,7 +8554,7 @@
         <v>38862</v>
       </c>
     </row>
-    <row r="141" spans="1:46" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:46">
       <c r="A141">
         <v>139</v>
       </c>
@@ -8582,7 +8589,7 @@
         <v>38853</v>
       </c>
     </row>
-    <row r="142" spans="1:46" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:46">
       <c r="A142">
         <v>140</v>
       </c>
@@ -8617,7 +8624,7 @@
         <v>38855</v>
       </c>
     </row>
-    <row r="143" spans="1:46" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:46">
       <c r="A143">
         <v>141</v>
       </c>
@@ -8667,7 +8674,7 @@
         <v>7050</v>
       </c>
     </row>
-    <row r="144" spans="1:46" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:46">
       <c r="A144">
         <v>142</v>
       </c>
@@ -8702,7 +8709,7 @@
         <v>38848</v>
       </c>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:19">
       <c r="A145">
         <v>143</v>
       </c>
@@ -8743,7 +8750,7 @@
         <v>38854</v>
       </c>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:19">
       <c r="A146">
         <v>144</v>
       </c>
@@ -8778,7 +8785,7 @@
         <v>38862</v>
       </c>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:19">
       <c r="A147">
         <v>145</v>
       </c>
@@ -8813,7 +8820,7 @@
         <v>38863</v>
       </c>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:19">
       <c r="A148">
         <v>146</v>
       </c>
@@ -8854,7 +8861,7 @@
         <v>38855</v>
       </c>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:19">
       <c r="A149">
         <v>147</v>
       </c>
@@ -8886,7 +8893,7 @@
         <v>38854</v>
       </c>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:19">
       <c r="A150">
         <v>148</v>
       </c>
@@ -8927,7 +8934,7 @@
         <v>38854</v>
       </c>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:19">
       <c r="A151">
         <v>149</v>
       </c>
@@ -8968,7 +8975,7 @@
         <v>38854</v>
       </c>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:19">
       <c r="A152">
         <v>150</v>
       </c>
@@ -9009,7 +9016,7 @@
         <v>38718</v>
       </c>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:19">
       <c r="A153">
         <v>151</v>
       </c>
@@ -9050,7 +9057,7 @@
         <v>38718</v>
       </c>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:19">
       <c r="A154">
         <v>152</v>
       </c>
@@ -9091,7 +9098,7 @@
         <v>38854</v>
       </c>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:19">
       <c r="A155">
         <v>153</v>
       </c>
@@ -9132,7 +9139,7 @@
         <v>38855</v>
       </c>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:19">
       <c r="A156">
         <v>154</v>
       </c>
@@ -9173,7 +9180,7 @@
         <v>38853</v>
       </c>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:19">
       <c r="A157">
         <v>155</v>
       </c>
@@ -9208,7 +9215,7 @@
         <v>38854</v>
       </c>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:19">
       <c r="A158">
         <v>156</v>
       </c>
@@ -9240,7 +9247,7 @@
         <v>38853</v>
       </c>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:19">
       <c r="A159">
         <v>157</v>
       </c>
@@ -9281,7 +9288,7 @@
         <v>38855</v>
       </c>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:19">
       <c r="A160">
         <v>158</v>
       </c>
@@ -9322,7 +9329,7 @@
         <v>38792</v>
       </c>
     </row>
-    <row r="161" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:42">
       <c r="A161">
         <v>159</v>
       </c>
@@ -9357,7 +9364,7 @@
         <v>38855</v>
       </c>
     </row>
-    <row r="162" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:42">
       <c r="A162">
         <v>160</v>
       </c>
@@ -9398,7 +9405,7 @@
         <v>38855</v>
       </c>
     </row>
-    <row r="163" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:42">
       <c r="A163">
         <v>161</v>
       </c>
@@ -9433,7 +9440,7 @@
         <v>38854</v>
       </c>
     </row>
-    <row r="164" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:42">
       <c r="A164">
         <v>162</v>
       </c>
@@ -9474,7 +9481,7 @@
         <v>38854</v>
       </c>
     </row>
-    <row r="165" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:42">
       <c r="A165">
         <v>163</v>
       </c>
@@ -9515,7 +9522,7 @@
         <v>38854</v>
       </c>
     </row>
-    <row r="166" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:42">
       <c r="A166">
         <v>164</v>
       </c>
@@ -9556,7 +9563,7 @@
         <v>38718</v>
       </c>
     </row>
-    <row r="167" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:42">
       <c r="A167">
         <v>165</v>
       </c>
@@ -9591,7 +9598,7 @@
         <v>38718</v>
       </c>
     </row>
-    <row r="168" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:42">
       <c r="A168">
         <v>166</v>
       </c>
@@ -9632,7 +9639,7 @@
         <v>38860</v>
       </c>
     </row>
-    <row r="169" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:42">
       <c r="A169">
         <v>167</v>
       </c>
@@ -9673,7 +9680,7 @@
         <v>38718</v>
       </c>
     </row>
-    <row r="170" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:42">
       <c r="A170">
         <v>168</v>
       </c>
@@ -9711,7 +9718,7 @@
         <v>38825</v>
       </c>
     </row>
-    <row r="171" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:42">
       <c r="A171">
         <v>169</v>
       </c>
@@ -9752,7 +9759,7 @@
         <v>38853</v>
       </c>
     </row>
-    <row r="172" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:42">
       <c r="A172">
         <v>170</v>
       </c>
@@ -9790,7 +9797,7 @@
         <v>38855</v>
       </c>
     </row>
-    <row r="173" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:42">
       <c r="A173">
         <v>171</v>
       </c>
@@ -9831,7 +9838,7 @@
         <v>38852</v>
       </c>
     </row>
-    <row r="174" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:42">
       <c r="A174">
         <v>172</v>
       </c>
@@ -9872,7 +9879,7 @@
         <v>38853</v>
       </c>
     </row>
-    <row r="175" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:42">
       <c r="A175">
         <v>173</v>
       </c>
@@ -9913,7 +9920,7 @@
         <v>38853</v>
       </c>
     </row>
-    <row r="176" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:42">
       <c r="A176">
         <v>174</v>
       </c>
@@ -9954,7 +9961,7 @@
         <v>38853</v>
       </c>
     </row>
-    <row r="177" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:48">
       <c r="A177">
         <v>175</v>
       </c>
@@ -10001,7 +10008,7 @@
         <v>5300</v>
       </c>
     </row>
-    <row r="178" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:48">
       <c r="A178">
         <v>176</v>
       </c>
@@ -10042,7 +10049,7 @@
         <v>39218</v>
       </c>
     </row>
-    <row r="179" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:48">
       <c r="A179">
         <v>177</v>
       </c>
@@ -10074,7 +10081,7 @@
         <v>39202</v>
       </c>
     </row>
-    <row r="180" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:48">
       <c r="A180">
         <v>178</v>
       </c>
@@ -10112,7 +10119,7 @@
         <v>39217</v>
       </c>
     </row>
-    <row r="181" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:48">
       <c r="A181">
         <v>179</v>
       </c>
@@ -10150,7 +10157,7 @@
         <v>39217</v>
       </c>
     </row>
-    <row r="182" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:48">
       <c r="A182">
         <v>180</v>
       </c>
@@ -10191,7 +10198,7 @@
         <v>39217</v>
       </c>
     </row>
-    <row r="183" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:48">
       <c r="A183">
         <v>181</v>
       </c>
@@ -10217,7 +10224,7 @@
         <v>39083</v>
       </c>
     </row>
-    <row r="184" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:48">
       <c r="A184">
         <v>182</v>
       </c>
@@ -10255,7 +10262,7 @@
         <v>39218</v>
       </c>
     </row>
-    <row r="185" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:48">
       <c r="A185">
         <v>183</v>
       </c>
@@ -10293,7 +10300,7 @@
         <v>39217</v>
       </c>
     </row>
-    <row r="186" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:48">
       <c r="A186">
         <v>184</v>
       </c>
@@ -10319,7 +10326,7 @@
         <v>8100</v>
       </c>
     </row>
-    <row r="187" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:48">
       <c r="A187">
         <v>185</v>
       </c>
@@ -10360,7 +10367,7 @@
         <v>39220</v>
       </c>
     </row>
-    <row r="188" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:48">
       <c r="A188">
         <v>186</v>
       </c>
@@ -10401,7 +10408,7 @@
         <v>39218</v>
       </c>
     </row>
-    <row r="189" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:48">
       <c r="A189">
         <v>187</v>
       </c>
@@ -10442,7 +10449,7 @@
         <v>39217</v>
       </c>
     </row>
-    <row r="190" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:48">
       <c r="A190">
         <v>188</v>
       </c>
@@ -10483,7 +10490,7 @@
         <v>39223</v>
       </c>
     </row>
-    <row r="191" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:48">
       <c r="A191">
         <v>189</v>
       </c>
@@ -10524,7 +10531,7 @@
         <v>39218</v>
       </c>
     </row>
-    <row r="192" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:48">
       <c r="A192">
         <v>190</v>
       </c>
@@ -10565,7 +10572,7 @@
         <v>39225</v>
       </c>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:19">
       <c r="A193">
         <v>191</v>
       </c>
@@ -10606,7 +10613,7 @@
         <v>39220</v>
       </c>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:19">
       <c r="A194">
         <v>192</v>
       </c>
@@ -10644,7 +10651,7 @@
         <v>39225</v>
       </c>
     </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:19">
       <c r="A195">
         <v>193</v>
       </c>
@@ -10682,7 +10689,7 @@
         <v>39223</v>
       </c>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:19">
       <c r="A196">
         <v>194</v>
       </c>
@@ -10717,7 +10724,7 @@
         <v>8300</v>
       </c>
     </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:19">
       <c r="A197">
         <v>195</v>
       </c>
@@ -10755,7 +10762,7 @@
         <v>39221</v>
       </c>
     </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:19">
       <c r="A198">
         <v>196</v>
       </c>
@@ -10796,7 +10803,7 @@
         <v>39083</v>
       </c>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:19">
       <c r="A199">
         <v>197</v>
       </c>
@@ -10837,7 +10844,7 @@
         <v>39238</v>
       </c>
     </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:19">
       <c r="A200">
         <v>198</v>
       </c>
@@ -10881,7 +10888,7 @@
         <v>39218</v>
       </c>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:19">
       <c r="A201">
         <v>199</v>
       </c>
@@ -10922,7 +10929,7 @@
         <v>39218</v>
       </c>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:19">
       <c r="A202">
         <v>200</v>
       </c>
@@ -10963,7 +10970,7 @@
         <v>39218</v>
       </c>
     </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:19">
       <c r="A203">
         <v>201</v>
       </c>
@@ -11004,7 +11011,7 @@
         <v>39218</v>
       </c>
     </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:19">
       <c r="A204">
         <v>202</v>
       </c>
@@ -11045,7 +11052,7 @@
         <v>39226</v>
       </c>
     </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:19">
       <c r="A205">
         <v>203</v>
       </c>
@@ -11086,7 +11093,7 @@
         <v>39218</v>
       </c>
     </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:19">
       <c r="A206">
         <v>204</v>
       </c>
@@ -11127,7 +11134,7 @@
         <v>39217</v>
       </c>
     </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:19">
       <c r="A207">
         <v>205</v>
       </c>
@@ -11168,7 +11175,7 @@
         <v>39220</v>
       </c>
     </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:19">
       <c r="A208">
         <v>206</v>
       </c>
@@ -11209,7 +11216,7 @@
         <v>39222</v>
       </c>
     </row>
-    <row r="209" spans="1:52" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:52">
       <c r="A209">
         <v>207</v>
       </c>
@@ -11250,7 +11257,7 @@
         <v>39224</v>
       </c>
     </row>
-    <row r="210" spans="1:52" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:52">
       <c r="A210">
         <v>208</v>
       </c>
@@ -11291,7 +11298,7 @@
         <v>39219</v>
       </c>
     </row>
-    <row r="211" spans="1:52" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:52">
       <c r="A211">
         <v>209</v>
       </c>
@@ -11332,7 +11339,7 @@
         <v>39217</v>
       </c>
     </row>
-    <row r="212" spans="1:52" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:52">
       <c r="A212">
         <v>210</v>
       </c>
@@ -11367,7 +11374,7 @@
         <v>39083</v>
       </c>
     </row>
-    <row r="213" spans="1:52" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:52">
       <c r="A213">
         <v>211</v>
       </c>
@@ -11408,7 +11415,7 @@
         <v>39221</v>
       </c>
     </row>
-    <row r="214" spans="1:52" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:52">
       <c r="A214">
         <v>212</v>
       </c>
@@ -11443,7 +11450,7 @@
         <v>39083</v>
       </c>
     </row>
-    <row r="215" spans="1:52" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:52">
       <c r="A215">
         <v>213</v>
       </c>
@@ -11484,7 +11491,7 @@
         <v>39220</v>
       </c>
     </row>
-    <row r="216" spans="1:52" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:52">
       <c r="A216">
         <v>214</v>
       </c>
@@ -11534,7 +11541,7 @@
         <v>7806</v>
       </c>
     </row>
-    <row r="217" spans="1:52" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:52">
       <c r="A217">
         <v>215</v>
       </c>
@@ -11581,7 +11588,7 @@
         <v>39247</v>
       </c>
     </row>
-    <row r="218" spans="1:52" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:52">
       <c r="A218">
         <v>216</v>
       </c>
@@ -11619,7 +11626,7 @@
         <v>8200</v>
       </c>
     </row>
-    <row r="219" spans="1:52" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:52">
       <c r="A219">
         <v>217</v>
       </c>
@@ -11660,7 +11667,7 @@
         <v>39218</v>
       </c>
     </row>
-    <row r="220" spans="1:52" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:52">
       <c r="A220">
         <v>218</v>
       </c>
@@ -11698,7 +11705,7 @@
         <v>39218</v>
       </c>
     </row>
-    <row r="221" spans="1:52" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:52">
       <c r="A221">
         <v>219</v>
       </c>
@@ -11751,7 +11758,7 @@
         <v>7900</v>
       </c>
     </row>
-    <row r="222" spans="1:52" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:52">
       <c r="A222">
         <v>220</v>
       </c>
@@ -11780,7 +11787,7 @@
         <v>39211</v>
       </c>
     </row>
-    <row r="223" spans="1:52" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:52">
       <c r="A223">
         <v>221</v>
       </c>
@@ -11788,7 +11795,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="224" spans="1:52" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:52">
       <c r="A224">
         <v>222</v>
       </c>
@@ -11798,18 +11805,10 @@
       <c r="C224" s="1">
         <v>39448</v>
       </c>
-      <c r="G224" s="1">
-        <v>39448</v>
-      </c>
-      <c r="K224" s="1">
-        <v>39448</v>
-      </c>
-      <c r="M224" s="1">
-        <v>39448</v>
-      </c>
-      <c r="O224" s="1">
-        <v>39448</v>
-      </c>
+      <c r="G224" s="1"/>
+      <c r="K224" s="1"/>
+      <c r="M224" s="1"/>
+      <c r="O224" s="1"/>
       <c r="S224" s="1">
         <v>39575</v>
       </c>
@@ -11817,7 +11816,7 @@
         <v>39448</v>
       </c>
     </row>
-    <row r="225" spans="1:57" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:57">
       <c r="A225">
         <v>223</v>
       </c>
@@ -11846,7 +11845,7 @@
         <v>39814</v>
       </c>
     </row>
-    <row r="226" spans="1:57" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:57">
       <c r="A226">
         <v>224</v>
       </c>
@@ -11896,7 +11895,7 @@
         <v>39954</v>
       </c>
     </row>
-    <row r="227" spans="1:57" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:57">
       <c r="A227">
         <v>225</v>
       </c>
@@ -11937,7 +11936,7 @@
         <v>39954</v>
       </c>
     </row>
-    <row r="228" spans="1:57" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:57">
       <c r="A228">
         <v>226</v>
       </c>
@@ -11978,7 +11977,7 @@
         <v>39954</v>
       </c>
     </row>
-    <row r="229" spans="1:57" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:57">
       <c r="A229">
         <v>227</v>
       </c>
@@ -12013,7 +12012,7 @@
         <v>39954</v>
       </c>
     </row>
-    <row r="230" spans="1:57" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:57">
       <c r="A230">
         <v>228</v>
       </c>
@@ -12054,7 +12053,7 @@
         <v>39955</v>
       </c>
     </row>
-    <row r="231" spans="1:57" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:57">
       <c r="A231">
         <v>229</v>
       </c>
@@ -12089,7 +12088,7 @@
         <v>39955</v>
       </c>
     </row>
-    <row r="232" spans="1:57" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:57">
       <c r="A232">
         <v>230</v>
       </c>
@@ -12130,7 +12129,7 @@
         <v>39955</v>
       </c>
     </row>
-    <row r="233" spans="1:57" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:57">
       <c r="A233">
         <v>231</v>
       </c>
@@ -12168,7 +12167,7 @@
         <v>39953</v>
       </c>
     </row>
-    <row r="234" spans="1:57" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:57">
       <c r="A234">
         <v>232</v>
       </c>
@@ -12209,7 +12208,7 @@
         <v>39951</v>
       </c>
     </row>
-    <row r="235" spans="1:57" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:57">
       <c r="A235">
         <v>233</v>
       </c>
@@ -12250,7 +12249,7 @@
         <v>39951</v>
       </c>
     </row>
-    <row r="236" spans="1:57" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:57">
       <c r="A236">
         <v>234</v>
       </c>
@@ -12291,7 +12290,7 @@
         <v>39953</v>
       </c>
     </row>
-    <row r="237" spans="1:57" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:57">
       <c r="A237">
         <v>235</v>
       </c>
@@ -12332,7 +12331,7 @@
         <v>39954</v>
       </c>
     </row>
-    <row r="238" spans="1:57" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:57">
       <c r="A238">
         <v>236</v>
       </c>
@@ -12373,7 +12372,7 @@
         <v>39955</v>
       </c>
     </row>
-    <row r="239" spans="1:57" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:57">
       <c r="A239">
         <v>237</v>
       </c>
@@ -12414,7 +12413,7 @@
         <v>39951</v>
       </c>
     </row>
-    <row r="240" spans="1:57" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:57">
       <c r="A240">
         <v>238</v>
       </c>
@@ -12425,7 +12424,7 @@
         <v>40321</v>
       </c>
     </row>
-    <row r="241" spans="1:58" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:58">
       <c r="A241">
         <v>239</v>
       </c>
@@ -12448,7 +12447,7 @@
         <v>40179</v>
       </c>
     </row>
-    <row r="242" spans="1:58" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:58">
       <c r="A242">
         <v>240</v>
       </c>
@@ -12483,7 +12482,7 @@
         <v>40315</v>
       </c>
     </row>
-    <row r="243" spans="1:58" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:58">
       <c r="A243">
         <v>241</v>
       </c>
@@ -12524,7 +12523,7 @@
         <v>40320</v>
       </c>
     </row>
-    <row r="244" spans="1:58" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:58">
       <c r="A244">
         <v>242</v>
       </c>
@@ -12565,7 +12564,7 @@
         <v>40321</v>
       </c>
     </row>
-    <row r="245" spans="1:58" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:58">
       <c r="A245">
         <v>243</v>
       </c>
@@ -12576,7 +12575,7 @@
         <v>40321</v>
       </c>
     </row>
-    <row r="246" spans="1:58" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:58">
       <c r="A246">
         <v>244</v>
       </c>
@@ -12617,7 +12616,7 @@
         <v>40179</v>
       </c>
     </row>
-    <row r="247" spans="1:58" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:58">
       <c r="A247">
         <v>245</v>
       </c>
@@ -12658,7 +12657,7 @@
         <v>40322</v>
       </c>
     </row>
-    <row r="248" spans="1:58" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:58">
       <c r="A248">
         <v>246</v>
       </c>
@@ -12699,7 +12698,7 @@
         <v>40322</v>
       </c>
     </row>
-    <row r="249" spans="1:58" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:58">
       <c r="A249">
         <v>247</v>
       </c>
@@ -12740,7 +12739,7 @@
         <v>40322</v>
       </c>
     </row>
-    <row r="250" spans="1:58" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:58">
       <c r="A250">
         <v>248</v>
       </c>
@@ -12781,7 +12780,7 @@
         <v>40322</v>
       </c>
     </row>
-    <row r="251" spans="1:58" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:58">
       <c r="A251">
         <v>249</v>
       </c>
@@ -12822,7 +12821,7 @@
         <v>40322</v>
       </c>
     </row>
-    <row r="252" spans="1:58" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:58">
       <c r="A252">
         <v>250</v>
       </c>
@@ -12863,7 +12862,7 @@
         <v>40322</v>
       </c>
     </row>
-    <row r="253" spans="1:58" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:58">
       <c r="A253">
         <v>251</v>
       </c>
@@ -12904,7 +12903,7 @@
         <v>40323</v>
       </c>
     </row>
-    <row r="254" spans="1:58" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:58">
       <c r="A254">
         <v>252</v>
       </c>
@@ -12945,7 +12944,7 @@
         <v>40316</v>
       </c>
     </row>
-    <row r="255" spans="1:58" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:58">
       <c r="A255">
         <v>253</v>
       </c>
@@ -12986,7 +12985,7 @@
         <v>40321</v>
       </c>
     </row>
-    <row r="256" spans="1:58" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:58">
       <c r="A256">
         <v>254</v>
       </c>
@@ -13027,7 +13026,7 @@
         <v>40322</v>
       </c>
     </row>
-    <row r="257" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:62">
       <c r="A257">
         <v>255</v>
       </c>
@@ -13068,7 +13067,7 @@
         <v>40322</v>
       </c>
     </row>
-    <row r="258" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:62">
       <c r="A258">
         <v>256</v>
       </c>
@@ -13109,7 +13108,7 @@
         <v>40321</v>
       </c>
     </row>
-    <row r="259" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:62">
       <c r="A259">
         <v>257</v>
       </c>
@@ -13150,7 +13149,7 @@
         <v>40321</v>
       </c>
     </row>
-    <row r="260" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:62">
       <c r="A260">
         <v>258</v>
       </c>
@@ -13191,7 +13190,7 @@
         <v>40321</v>
       </c>
     </row>
-    <row r="261" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:62">
       <c r="A261">
         <v>259</v>
       </c>
@@ -13232,7 +13231,7 @@
         <v>40321</v>
       </c>
     </row>
-    <row r="262" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:62">
       <c r="A262">
         <v>260</v>
       </c>
@@ -13270,7 +13269,7 @@
         <v>40322</v>
       </c>
     </row>
-    <row r="263" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:62">
       <c r="A263">
         <v>261</v>
       </c>
@@ -13311,7 +13310,7 @@
         <v>40322</v>
       </c>
     </row>
-    <row r="264" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:62">
       <c r="A264">
         <v>262</v>
       </c>
@@ -13352,7 +13351,7 @@
         <v>40321</v>
       </c>
     </row>
-    <row r="265" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:62">
       <c r="A265">
         <v>263</v>
       </c>
@@ -13363,7 +13362,7 @@
         <v>40544</v>
       </c>
     </row>
-    <row r="266" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:62">
       <c r="A266">
         <v>264</v>
       </c>
@@ -13386,7 +13385,7 @@
         <v>40544</v>
       </c>
     </row>
-    <row r="267" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:62">
       <c r="A267">
         <v>265</v>
       </c>
@@ -13424,7 +13423,7 @@
         <v>40684</v>
       </c>
     </row>
-    <row r="268" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:62">
       <c r="A268">
         <v>266</v>
       </c>
@@ -13471,7 +13470,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="269" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:62">
       <c r="A269">
         <v>267</v>
       </c>
@@ -13482,7 +13481,7 @@
         <v>41048</v>
       </c>
     </row>
-    <row r="270" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:62">
       <c r="A270">
         <v>268</v>
       </c>
@@ -13523,7 +13522,7 @@
         <v>41048</v>
       </c>
     </row>
-    <row r="271" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:62">
       <c r="A271">
         <v>269</v>
       </c>
@@ -13561,7 +13560,7 @@
         <v>41048</v>
       </c>
     </row>
-    <row r="272" spans="1:62" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:62">
       <c r="A272">
         <v>270</v>
       </c>
@@ -13602,7 +13601,7 @@
         <v>41054</v>
       </c>
     </row>
-    <row r="273" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:64">
       <c r="A273">
         <v>271</v>
       </c>
@@ -13643,7 +13642,7 @@
         <v>41055</v>
       </c>
     </row>
-    <row r="274" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:64">
       <c r="A274">
         <v>272</v>
       </c>
@@ -13684,7 +13683,7 @@
         <v>41049</v>
       </c>
     </row>
-    <row r="275" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:64">
       <c r="A275">
         <v>273</v>
       </c>
@@ -13731,7 +13730,7 @@
         <v>5800</v>
       </c>
     </row>
-    <row r="276" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:64">
       <c r="A276">
         <v>274</v>
       </c>
@@ -13772,7 +13771,7 @@
         <v>41048</v>
       </c>
     </row>
-    <row r="277" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:64">
       <c r="A277">
         <v>275</v>
       </c>
@@ -13813,7 +13812,7 @@
         <v>41048</v>
       </c>
     </row>
-    <row r="278" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:64">
       <c r="A278">
         <v>276</v>
       </c>
@@ -13854,7 +13853,7 @@
         <v>40909</v>
       </c>
     </row>
-    <row r="279" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:64">
       <c r="A279">
         <v>277</v>
       </c>
@@ -13895,7 +13894,7 @@
         <v>41048</v>
       </c>
     </row>
-    <row r="280" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:64">
       <c r="A280">
         <v>278</v>
       </c>
@@ -13936,7 +13935,7 @@
         <v>41054</v>
       </c>
     </row>
-    <row r="281" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:64">
       <c r="A281">
         <v>279</v>
       </c>
@@ -13977,7 +13976,7 @@
         <v>41048</v>
       </c>
     </row>
-    <row r="282" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:64">
       <c r="A282">
         <v>280</v>
       </c>
@@ -14018,7 +14017,7 @@
         <v>41054</v>
       </c>
     </row>
-    <row r="283" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:64">
       <c r="A283">
         <v>281</v>
       </c>
@@ -14047,7 +14046,7 @@
         <v>41049</v>
       </c>
     </row>
-    <row r="284" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:64">
       <c r="A284">
         <v>282</v>
       </c>
@@ -14088,7 +14087,7 @@
         <v>41054</v>
       </c>
     </row>
-    <row r="285" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:64">
       <c r="A285">
         <v>283</v>
       </c>
@@ -14099,7 +14098,7 @@
         <v>41049</v>
       </c>
     </row>
-    <row r="286" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:64">
       <c r="A286">
         <v>284</v>
       </c>
@@ -14110,7 +14109,7 @@
         <v>41049</v>
       </c>
     </row>
-    <row r="287" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:64">
       <c r="A287">
         <v>285</v>
       </c>
@@ -14121,7 +14120,7 @@
         <v>41048</v>
       </c>
     </row>
-    <row r="288" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:64">
       <c r="A288">
         <v>286</v>
       </c>
@@ -14132,7 +14131,7 @@
         <v>41048</v>
       </c>
     </row>
-    <row r="289" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:32">
       <c r="A289">
         <v>287</v>
       </c>
@@ -14164,7 +14163,7 @@
         <v>41048</v>
       </c>
     </row>
-    <row r="290" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:32">
       <c r="A290">
         <v>288</v>
       </c>
@@ -14205,7 +14204,7 @@
         <v>41413</v>
       </c>
     </row>
-    <row r="291" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:32">
       <c r="A291">
         <v>289</v>
       </c>
@@ -14246,7 +14245,7 @@
         <v>41413</v>
       </c>
     </row>
-    <row r="292" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:32">
       <c r="A292">
         <v>290</v>
       </c>
@@ -14257,7 +14256,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="293" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:32">
       <c r="A293">
         <v>291</v>
       </c>
@@ -14298,7 +14297,7 @@
         <v>41416</v>
       </c>
     </row>
-    <row r="294" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:32">
       <c r="A294">
         <v>292</v>
       </c>
@@ -14339,7 +14338,7 @@
         <v>41419</v>
       </c>
     </row>
-    <row r="295" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:32">
       <c r="A295">
         <v>293</v>
       </c>
@@ -14380,7 +14379,7 @@
         <v>41413</v>
       </c>
     </row>
-    <row r="296" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:32">
       <c r="A296">
         <v>294</v>
       </c>
@@ -14421,7 +14420,7 @@
         <v>41409</v>
       </c>
     </row>
-    <row r="297" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:32">
       <c r="A297">
         <v>295</v>
       </c>
@@ -14462,7 +14461,7 @@
         <v>41414</v>
       </c>
     </row>
-    <row r="298" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:32">
       <c r="A298">
         <v>296</v>
       </c>
@@ -14503,7 +14502,7 @@
         <v>41414</v>
       </c>
     </row>
-    <row r="299" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:32">
       <c r="A299">
         <v>297</v>
       </c>
@@ -14544,7 +14543,7 @@
         <v>41416</v>
       </c>
     </row>
-    <row r="300" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:32">
       <c r="A300">
         <v>298</v>
       </c>
@@ -14585,7 +14584,7 @@
         <v>41415</v>
       </c>
     </row>
-    <row r="301" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:32">
       <c r="A301">
         <v>299</v>
       </c>
@@ -14626,7 +14625,7 @@
         <v>41416</v>
       </c>
     </row>
-    <row r="302" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:32">
       <c r="A302">
         <v>300</v>
       </c>
@@ -14673,7 +14672,7 @@
         <v>6200</v>
       </c>
     </row>
-    <row r="303" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:32">
       <c r="A303">
         <v>301</v>
       </c>
@@ -14687,7 +14686,7 @@
         <v>41412</v>
       </c>
     </row>
-    <row r="304" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:32">
       <c r="A304">
         <v>302</v>
       </c>
@@ -14728,7 +14727,7 @@
         <v>41783</v>
       </c>
     </row>
-    <row r="305" spans="1:66" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:66">
       <c r="A305">
         <v>303</v>
       </c>
@@ -14751,7 +14750,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="306" spans="1:66" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:66">
       <c r="A306">
         <v>304</v>
       </c>
@@ -14792,7 +14791,7 @@
         <v>41784</v>
       </c>
     </row>
-    <row r="307" spans="1:66" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:66">
       <c r="A307">
         <v>305</v>
       </c>
@@ -14833,7 +14832,7 @@
         <v>41784</v>
       </c>
     </row>
-    <row r="308" spans="1:66" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:66">
       <c r="A308">
         <v>306</v>
       </c>
@@ -14880,7 +14879,7 @@
         <v>5900</v>
       </c>
     </row>
-    <row r="309" spans="1:66" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:66">
       <c r="A309">
         <v>307</v>
       </c>
@@ -14921,7 +14920,7 @@
         <v>41784</v>
       </c>
     </row>
-    <row r="310" spans="1:66" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:66">
       <c r="A310">
         <v>308</v>
       </c>
@@ -14968,7 +14967,7 @@
         <v>5300</v>
       </c>
     </row>
-    <row r="311" spans="1:66" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:66">
       <c r="A311">
         <v>309</v>
       </c>
@@ -15009,7 +15008,7 @@
         <v>41784</v>
       </c>
     </row>
-    <row r="312" spans="1:66" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:66">
       <c r="A312">
         <v>310</v>
       </c>
@@ -15056,7 +15055,7 @@
         <v>5800</v>
       </c>
     </row>
-    <row r="313" spans="1:66" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:66">
       <c r="A313">
         <v>311</v>
       </c>
@@ -15097,7 +15096,7 @@
         <v>41784</v>
       </c>
     </row>
-    <row r="314" spans="1:66" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:66">
       <c r="A314">
         <v>312</v>
       </c>
@@ -15138,7 +15137,7 @@
         <v>42511</v>
       </c>
     </row>
-    <row r="315" spans="1:66" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:66">
       <c r="A315">
         <v>313</v>
       </c>
@@ -15161,7 +15160,7 @@
         <v>42370</v>
       </c>
     </row>
-    <row r="316" spans="1:66" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:66">
       <c r="A316">
         <v>314</v>
       </c>
@@ -15202,7 +15201,7 @@
         <v>42513</v>
       </c>
     </row>
-    <row r="317" spans="1:66" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:66">
       <c r="A317">
         <v>315</v>
       </c>
@@ -15243,7 +15242,7 @@
         <v>42513</v>
       </c>
     </row>
-    <row r="318" spans="1:66" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:66">
       <c r="A318">
         <v>316</v>
       </c>
@@ -15290,7 +15289,7 @@
         <v>5800</v>
       </c>
     </row>
-    <row r="319" spans="1:66" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:66">
       <c r="A319">
         <v>317</v>
       </c>
@@ -15331,7 +15330,7 @@
         <v>42513</v>
       </c>
     </row>
-    <row r="320" spans="1:66" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:66">
       <c r="A320">
         <v>318</v>
       </c>
@@ -15372,7 +15371,7 @@
         <v>42484</v>
       </c>
     </row>
-    <row r="321" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:64">
       <c r="A321">
         <v>319</v>
       </c>
@@ -15413,7 +15412,7 @@
         <v>42482</v>
       </c>
     </row>
-    <row r="322" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:64">
       <c r="A322">
         <v>320</v>
       </c>
@@ -15454,7 +15453,7 @@
         <v>42513</v>
       </c>
     </row>
-    <row r="323" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:64">
       <c r="A323">
         <v>321</v>
       </c>
@@ -15495,7 +15494,7 @@
         <v>42510</v>
       </c>
     </row>
-    <row r="324" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:64">
       <c r="A324">
         <v>322</v>
       </c>
@@ -15536,7 +15535,7 @@
         <v>42509</v>
       </c>
     </row>
-    <row r="325" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:64">
       <c r="A325">
         <v>323</v>
       </c>
@@ -15577,7 +15576,7 @@
         <v>42513</v>
       </c>
     </row>
-    <row r="326" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:64">
       <c r="A326">
         <v>324</v>
       </c>
@@ -15618,7 +15617,7 @@
         <v>42511</v>
       </c>
     </row>
-    <row r="327" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:64">
       <c r="A327">
         <v>325</v>
       </c>
@@ -15665,7 +15664,7 @@
         <v>5750</v>
       </c>
     </row>
-    <row r="328" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:64">
       <c r="A328">
         <v>326</v>
       </c>
@@ -15706,7 +15705,7 @@
         <v>5750</v>
       </c>
     </row>
-    <row r="329" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:64">
       <c r="A329">
         <v>327</v>
       </c>
@@ -15747,7 +15746,7 @@
         <v>5750</v>
       </c>
     </row>
-    <row r="330" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:64">
       <c r="A330">
         <v>328</v>
       </c>
@@ -15788,7 +15787,7 @@
         <v>42511</v>
       </c>
     </row>
-    <row r="331" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:64">
       <c r="A331">
         <v>329</v>
       </c>
@@ -15829,7 +15828,7 @@
         <v>42510</v>
       </c>
     </row>
-    <row r="332" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:64">
       <c r="A332">
         <v>330</v>
       </c>
@@ -15870,7 +15869,7 @@
         <v>42510</v>
       </c>
     </row>
-    <row r="333" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:64">
       <c r="A333">
         <v>331</v>
       </c>
@@ -15911,7 +15910,7 @@
         <v>42512</v>
       </c>
     </row>
-    <row r="334" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:64">
       <c r="A334">
         <v>332</v>
       </c>
@@ -15922,7 +15921,7 @@
         <v>42512</v>
       </c>
     </row>
-    <row r="335" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:64">
       <c r="A335">
         <v>333</v>
       </c>
@@ -15963,7 +15962,7 @@
         <v>42510</v>
       </c>
     </row>
-    <row r="336" spans="1:64" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:64">
       <c r="A336">
         <v>334</v>
       </c>
@@ -16004,7 +16003,7 @@
         <v>42513</v>
       </c>
     </row>
-    <row r="337" spans="1:68" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:68">
       <c r="A337">
         <v>335</v>
       </c>
@@ -16045,7 +16044,7 @@
         <v>42511</v>
       </c>
     </row>
-    <row r="338" spans="1:68" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:68">
       <c r="A338">
         <v>336</v>
       </c>
@@ -16080,7 +16079,7 @@
         <v>42510</v>
       </c>
     </row>
-    <row r="339" spans="1:68" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:68">
       <c r="A339">
         <v>337</v>
       </c>
@@ -16124,7 +16123,7 @@
         <v>42481</v>
       </c>
     </row>
-    <row r="340" spans="1:68" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:68">
       <c r="A340">
         <v>338</v>
       </c>
@@ -16135,7 +16134,7 @@
         <v>42866</v>
       </c>
     </row>
-    <row r="341" spans="1:68" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:68">
       <c r="A341">
         <v>339</v>
       </c>
@@ -16179,7 +16178,7 @@
         <v>5700</v>
       </c>
     </row>
-    <row r="342" spans="1:68" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:68">
       <c r="A342">
         <v>340</v>
       </c>
@@ -16223,7 +16222,7 @@
         <v>5800</v>
       </c>
     </row>
-    <row r="343" spans="1:68" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:68">
       <c r="A343">
         <v>341</v>
       </c>
@@ -16258,7 +16257,7 @@
         <v>7650</v>
       </c>
     </row>
-    <row r="344" spans="1:68" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:68">
       <c r="A344">
         <v>342</v>
       </c>
@@ -16299,7 +16298,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="345" spans="1:68" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:68">
       <c r="A345">
         <v>343</v>
       </c>
@@ -16340,7 +16339,7 @@
         <v>42882</v>
       </c>
     </row>
-    <row r="346" spans="1:68" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:68">
       <c r="A346">
         <v>344</v>
       </c>
@@ -16381,7 +16380,7 @@
         <v>42871</v>
       </c>
     </row>
-    <row r="347" spans="1:68" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:68">
       <c r="A347">
         <v>345</v>
       </c>
@@ -16422,7 +16421,7 @@
         <v>42871</v>
       </c>
     </row>
-    <row r="348" spans="1:68" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:68">
       <c r="A348">
         <v>346</v>
       </c>
@@ -16463,7 +16462,7 @@
         <v>42876</v>
       </c>
     </row>
-    <row r="349" spans="1:68" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:68">
       <c r="A349">
         <v>347</v>
       </c>
@@ -16504,7 +16503,7 @@
         <v>42882</v>
       </c>
     </row>
-    <row r="350" spans="1:68" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:68">
       <c r="A350">
         <v>348</v>
       </c>
@@ -16551,7 +16550,7 @@
         <v>5800</v>
       </c>
     </row>
-    <row r="351" spans="1:68" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:68">
       <c r="A351">
         <v>349</v>
       </c>
@@ -16592,7 +16591,7 @@
         <v>42877</v>
       </c>
     </row>
-    <row r="352" spans="1:68" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:68">
       <c r="A352">
         <v>350</v>
       </c>
@@ -16627,7 +16626,7 @@
         <v>42876</v>
       </c>
     </row>
-    <row r="353" spans="1:66" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:66">
       <c r="A353">
         <v>351</v>
       </c>
@@ -16668,7 +16667,7 @@
         <v>42871</v>
       </c>
     </row>
-    <row r="354" spans="1:66" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:66">
       <c r="A354">
         <v>352</v>
       </c>
@@ -16709,7 +16708,7 @@
         <v>42877</v>
       </c>
     </row>
-    <row r="355" spans="1:66" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:66">
       <c r="A355">
         <v>353</v>
       </c>
@@ -16750,7 +16749,7 @@
         <v>42871</v>
       </c>
     </row>
-    <row r="356" spans="1:66" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:66">
       <c r="A356">
         <v>354</v>
       </c>
@@ -16791,7 +16790,7 @@
         <v>42871</v>
       </c>
     </row>
-    <row r="357" spans="1:66" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:66">
       <c r="A357">
         <v>355</v>
       </c>
@@ -16832,7 +16831,7 @@
         <v>42882</v>
       </c>
     </row>
-    <row r="358" spans="1:66" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:66">
       <c r="A358">
         <v>356</v>
       </c>
@@ -16873,7 +16872,7 @@
         <v>42876</v>
       </c>
     </row>
-    <row r="359" spans="1:66" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:66">
       <c r="A359">
         <v>357</v>
       </c>
@@ -16896,7 +16895,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="360" spans="1:66" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:66">
       <c r="A360">
         <v>358</v>
       </c>
@@ -16937,7 +16936,7 @@
         <v>42876</v>
       </c>
     </row>
-    <row r="361" spans="1:66" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:66">
       <c r="A361">
         <v>359</v>
       </c>
@@ -16948,7 +16947,7 @@
         <v>42876</v>
       </c>
     </row>
-    <row r="362" spans="1:66" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:66">
       <c r="A362">
         <v>360</v>
       </c>
@@ -16959,7 +16958,7 @@
         <v>42878</v>
       </c>
     </row>
-    <row r="363" spans="1:66" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:66">
       <c r="A363">
         <v>361</v>
       </c>
@@ -17000,7 +16999,7 @@
         <v>43239</v>
       </c>
     </row>
-    <row r="364" spans="1:66" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:66">
       <c r="A364">
         <v>362</v>
       </c>
@@ -17047,7 +17046,7 @@
         <v>5800</v>
       </c>
     </row>
-    <row r="365" spans="1:66" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:66">
       <c r="A365">
         <v>363</v>
       </c>
@@ -17088,7 +17087,7 @@
         <v>4900</v>
       </c>
     </row>
-    <row r="366" spans="1:66" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:66">
       <c r="A366">
         <v>364</v>
       </c>
@@ -17129,7 +17128,7 @@
         <v>4900</v>
       </c>
     </row>
-    <row r="367" spans="1:66" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:66">
       <c r="A367">
         <v>365</v>
       </c>
@@ -17170,7 +17169,7 @@
         <v>43235</v>
       </c>
     </row>
-    <row r="368" spans="1:66" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:66">
       <c r="A368">
         <v>366</v>
       </c>
@@ -17205,7 +17204,7 @@
         <v>43240</v>
       </c>
     </row>
-    <row r="369" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:69">
       <c r="A369">
         <v>367</v>
       </c>
@@ -17246,7 +17245,7 @@
         <v>4900</v>
       </c>
     </row>
-    <row r="370" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:69">
       <c r="A370">
         <v>368</v>
       </c>
@@ -17287,7 +17286,7 @@
         <v>4900</v>
       </c>
     </row>
-    <row r="371" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:69">
       <c r="A371">
         <v>369</v>
       </c>
@@ -17328,7 +17327,7 @@
         <v>4900</v>
       </c>
     </row>
-    <row r="372" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:69">
       <c r="A372">
         <v>370</v>
       </c>
@@ -17369,7 +17368,7 @@
         <v>4900</v>
       </c>
     </row>
-    <row r="373" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:69">
       <c r="A373">
         <v>371</v>
       </c>
@@ -17416,7 +17415,7 @@
         <v>5750</v>
       </c>
     </row>
-    <row r="374" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:69">
       <c r="A374">
         <v>372</v>
       </c>
@@ -17457,7 +17456,7 @@
         <v>43235</v>
       </c>
     </row>
-    <row r="375" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:69">
       <c r="A375">
         <v>373</v>
       </c>
@@ -17498,7 +17497,7 @@
         <v>43234</v>
       </c>
     </row>
-    <row r="376" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:69">
       <c r="A376">
         <v>374</v>
       </c>
@@ -17533,7 +17532,7 @@
         <v>43101</v>
       </c>
     </row>
-    <row r="377" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:69">
       <c r="A377">
         <v>375</v>
       </c>
@@ -17574,7 +17573,7 @@
         <v>4900</v>
       </c>
     </row>
-    <row r="378" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:69">
       <c r="A378">
         <v>376</v>
       </c>
@@ -17603,7 +17602,7 @@
         <v>43101</v>
       </c>
     </row>
-    <row r="379" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:69">
       <c r="A379">
         <v>377</v>
       </c>
@@ -17644,7 +17643,7 @@
         <v>43236</v>
       </c>
     </row>
-    <row r="380" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:69">
       <c r="A380">
         <v>378</v>
       </c>
@@ -17685,7 +17684,7 @@
         <v>43235</v>
       </c>
     </row>
-    <row r="381" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:69">
       <c r="A381">
         <v>379</v>
       </c>
@@ -17732,7 +17731,7 @@
         <v>6100</v>
       </c>
     </row>
-    <row r="382" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:69">
       <c r="A382">
         <v>380</v>
       </c>
@@ -17743,7 +17742,7 @@
         <v>43234</v>
       </c>
     </row>
-    <row r="383" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:69">
       <c r="A383">
         <v>381</v>
       </c>
@@ -17784,7 +17783,7 @@
         <v>43608</v>
       </c>
     </row>
-    <row r="384" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:69">
       <c r="A384">
         <v>382</v>
       </c>
@@ -17819,7 +17818,7 @@
         <v>43466</v>
       </c>
     </row>
-    <row r="385" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:32">
       <c r="A385">
         <v>383</v>
       </c>
@@ -17860,7 +17859,7 @@
         <v>43607</v>
       </c>
     </row>
-    <row r="386" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:32">
       <c r="A386">
         <v>384</v>
       </c>
@@ -17895,7 +17894,7 @@
         <v>43608</v>
       </c>
     </row>
-    <row r="387" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:32">
       <c r="A387">
         <v>385</v>
       </c>
@@ -17936,7 +17935,7 @@
         <v>43609</v>
       </c>
     </row>
-    <row r="388" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:32">
       <c r="A388">
         <v>386</v>
       </c>
@@ -17977,7 +17976,7 @@
         <v>43608</v>
       </c>
     </row>
-    <row r="389" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:32">
       <c r="A389">
         <v>387</v>
       </c>
@@ -18021,7 +18020,7 @@
         <v>43580</v>
       </c>
     </row>
-    <row r="390" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:32">
       <c r="A390">
         <v>388</v>
       </c>
@@ -18062,7 +18061,7 @@
         <v>43608</v>
       </c>
     </row>
-    <row r="391" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:32">
       <c r="A391">
         <v>389</v>
       </c>
@@ -18103,7 +18102,7 @@
         <v>43608</v>
       </c>
     </row>
-    <row r="392" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:32">
       <c r="A392">
         <v>390</v>
       </c>
@@ -18144,7 +18143,7 @@
         <v>43608</v>
       </c>
     </row>
-    <row r="393" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:32">
       <c r="A393">
         <v>391</v>
       </c>
@@ -18185,7 +18184,7 @@
         <v>43608</v>
       </c>
     </row>
-    <row r="394" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:32">
       <c r="A394">
         <v>392</v>
       </c>
@@ -18223,7 +18222,7 @@
         <v>43608</v>
       </c>
     </row>
-    <row r="395" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:32">
       <c r="A395">
         <v>393</v>
       </c>
@@ -18270,7 +18269,7 @@
         <v>5800</v>
       </c>
     </row>
-    <row r="396" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:32">
       <c r="A396">
         <v>394</v>
       </c>
@@ -18311,7 +18310,7 @@
         <v>43608</v>
       </c>
     </row>
-    <row r="397" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:32">
       <c r="A397">
         <v>395</v>
       </c>
@@ -18352,7 +18351,7 @@
         <v>43608</v>
       </c>
     </row>
-    <row r="398" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:32">
       <c r="A398">
         <v>396</v>
       </c>
@@ -18393,7 +18392,7 @@
         <v>43613</v>
       </c>
     </row>
-    <row r="399" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:32">
       <c r="A399">
         <v>397</v>
       </c>
@@ -18434,7 +18433,7 @@
         <v>43615</v>
       </c>
     </row>
-    <row r="400" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:32">
       <c r="A400">
         <v>398</v>
       </c>
@@ -18475,7 +18474,7 @@
         <v>43608</v>
       </c>
     </row>
-    <row r="401" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:84">
       <c r="A401">
         <v>399</v>
       </c>
@@ -18516,7 +18515,7 @@
         <v>43608</v>
       </c>
     </row>
-    <row r="402" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:84">
       <c r="A402">
         <v>400</v>
       </c>
@@ -18557,7 +18556,7 @@
         <v>43608</v>
       </c>
     </row>
-    <row r="403" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:84">
       <c r="A403">
         <v>401</v>
       </c>
@@ -18598,7 +18597,7 @@
         <v>43608</v>
       </c>
     </row>
-    <row r="404" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:84">
       <c r="A404">
         <v>402</v>
       </c>
@@ -18621,7 +18620,7 @@
         <v>43466</v>
       </c>
     </row>
-    <row r="405" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:84">
       <c r="A405">
         <v>403</v>
       </c>
@@ -18644,7 +18643,7 @@
         <v>43466</v>
       </c>
     </row>
-    <row r="406" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:84">
       <c r="A406">
         <v>404</v>
       </c>
@@ -18706,38 +18705,27 @@
         <v>8500</v>
       </c>
     </row>
-    <row r="407" spans="1:84" x14ac:dyDescent="0.4">
-      <c r="A407">
+    <row r="407" spans="1:84">
+      <c r="A407" s="2">
         <v>405</v>
       </c>
-      <c r="B407" t="s">
+      <c r="B407" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="C407" s="1">
+      <c r="C407" s="4">
         <v>27466</v>
       </c>
-      <c r="G407" s="1">
-        <v>27395</v>
-      </c>
+      <c r="G407" s="1"/>
       <c r="I407" s="1">
-        <v>27395</v>
+        <v>27511</v>
+      </c>
+      <c r="J407">
+        <v>7600</v>
       </c>
       <c r="K407" s="1">
-        <v>27395</v>
-      </c>
-      <c r="M407" s="1">
-        <v>27395</v>
-      </c>
-      <c r="O407" s="1">
-        <v>27511</v>
-      </c>
-      <c r="P407">
-        <v>7600</v>
-      </c>
-      <c r="Q407" s="1">
         <v>27518</v>
       </c>
-      <c r="R407">
+      <c r="L407">
         <v>8200</v>
       </c>
       <c r="S407" s="1">
@@ -18747,7 +18735,7 @@
         <v>27395</v>
       </c>
     </row>
-    <row r="408" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:84">
       <c r="A408">
         <v>406</v>
       </c>
@@ -18761,7 +18749,7 @@
         <v>29221</v>
       </c>
     </row>
-    <row r="409" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:84">
       <c r="A409">
         <v>407</v>
       </c>
@@ -18802,7 +18790,7 @@
         <v>8200</v>
       </c>
     </row>
-    <row r="410" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:84">
       <c r="A410">
         <v>408</v>
       </c>
@@ -18821,29 +18809,29 @@
       <c r="F410">
         <v>6500</v>
       </c>
-      <c r="M410" s="1">
+      <c r="G410" s="1">
         <v>31259</v>
       </c>
-      <c r="N410">
+      <c r="H410">
         <v>7100</v>
       </c>
-      <c r="O410" s="1">
+      <c r="I410" s="1">
         <v>31265</v>
       </c>
-      <c r="P410">
+      <c r="J410">
         <v>7750</v>
       </c>
-      <c r="Q410" s="1">
+      <c r="K410" s="1">
         <v>31270</v>
       </c>
-      <c r="R410">
+      <c r="L410">
         <v>8450</v>
       </c>
       <c r="S410" s="1">
         <v>31287</v>
       </c>
     </row>
-    <row r="411" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:84">
       <c r="A411">
         <v>409</v>
       </c>
@@ -18856,34 +18844,28 @@
       <c r="D411">
         <v>5154</v>
       </c>
+      <c r="E411" s="1">
+        <v>32219</v>
+      </c>
+      <c r="F411">
+        <v>6500</v>
+      </c>
       <c r="G411" s="1">
-        <v>32213</v>
+        <v>32234</v>
       </c>
       <c r="H411">
-        <v>5500</v>
+        <v>7028</v>
       </c>
       <c r="I411" s="1">
-        <v>32214</v>
+        <v>32241</v>
       </c>
       <c r="J411">
-        <v>6000</v>
-      </c>
-      <c r="M411" s="1">
-        <v>32234</v>
-      </c>
-      <c r="N411">
-        <v>7028</v>
-      </c>
-      <c r="O411" s="1">
-        <v>32241</v>
-      </c>
-      <c r="P411">
         <v>7790</v>
       </c>
-      <c r="Q411" s="1">
+      <c r="K411" s="1">
         <v>32265</v>
       </c>
-      <c r="R411">
+      <c r="L411">
         <v>8200</v>
       </c>
       <c r="S411" s="1">
@@ -18902,7 +18884,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="412" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:84">
       <c r="A412">
         <v>410</v>
       </c>
@@ -18922,33 +18904,21 @@
         <v>6500</v>
       </c>
       <c r="G412" s="1">
-        <v>32947</v>
+        <v>32954</v>
       </c>
       <c r="H412">
-        <v>5500</v>
+        <v>7050</v>
       </c>
       <c r="I412" s="1">
-        <v>32949</v>
+        <v>32974</v>
       </c>
       <c r="J412">
-        <v>6000</v>
-      </c>
-      <c r="M412" s="1">
-        <v>32954</v>
-      </c>
-      <c r="N412">
-        <v>7050</v>
-      </c>
-      <c r="O412" s="1">
-        <v>32974</v>
-      </c>
-      <c r="P412">
         <v>7800</v>
       </c>
-      <c r="Q412" s="1">
+      <c r="K412" s="1">
         <v>32987</v>
       </c>
-      <c r="R412">
+      <c r="L412">
         <v>8200</v>
       </c>
       <c r="S412" s="1">
@@ -18961,7 +18931,7 @@
         <v>8690</v>
       </c>
     </row>
-    <row r="413" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:84">
       <c r="A413">
         <v>411</v>
       </c>
@@ -18980,22 +18950,22 @@
       <c r="F413">
         <v>6500</v>
       </c>
-      <c r="M413" s="1">
+      <c r="G413" s="1">
         <v>33327</v>
       </c>
-      <c r="N413">
-        <v>7000</v>
-      </c>
-      <c r="O413" s="1">
+      <c r="H413">
+        <v>7000</v>
+      </c>
+      <c r="I413" s="1">
         <v>33349</v>
       </c>
-      <c r="P413">
+      <c r="J413">
         <v>7600</v>
       </c>
-      <c r="Q413" s="1">
+      <c r="K413" s="1">
         <v>33365</v>
       </c>
-      <c r="R413">
+      <c r="L413">
         <v>8300</v>
       </c>
       <c r="CE413" s="1">
@@ -19005,7 +18975,7 @@
         <v>6100</v>
       </c>
     </row>
-    <row r="414" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:84">
       <c r="A414">
         <v>412</v>
       </c>
@@ -19043,7 +19013,7 @@
         <v>33385</v>
       </c>
     </row>
-    <row r="415" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:84">
       <c r="A415">
         <v>413</v>
       </c>
@@ -19090,7 +19060,7 @@
         <v>34094</v>
       </c>
     </row>
-    <row r="416" spans="1:84" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:84">
       <c r="A416">
         <v>414</v>
       </c>
@@ -19131,7 +19101,7 @@
         <v>34116</v>
       </c>
     </row>
-    <row r="417" spans="1:85" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:85">
       <c r="A417">
         <v>415</v>
       </c>
@@ -19169,7 +19139,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="418" spans="1:85" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:85">
       <c r="A418">
         <v>416</v>
       </c>
@@ -19182,41 +19152,35 @@
       <c r="D418">
         <v>5300</v>
       </c>
+      <c r="E418" s="1">
+        <v>34208</v>
+      </c>
+      <c r="F418">
+        <v>6500</v>
+      </c>
       <c r="G418" s="1">
-        <v>34207</v>
+        <v>34214</v>
       </c>
       <c r="H418">
-        <v>6050</v>
+        <v>7010</v>
       </c>
       <c r="I418" s="1">
-        <v>34208</v>
+        <v>34230</v>
       </c>
       <c r="J418">
-        <v>6500</v>
+        <v>7900</v>
       </c>
       <c r="K418" s="1">
-        <v>34214</v>
+        <v>34247</v>
       </c>
       <c r="L418">
-        <v>7010</v>
-      </c>
-      <c r="M418" s="1">
-        <v>34230</v>
-      </c>
-      <c r="N418">
-        <v>7900</v>
-      </c>
-      <c r="O418" s="1">
-        <v>34247</v>
-      </c>
-      <c r="P418">
         <v>8300</v>
       </c>
       <c r="S418" s="1">
         <v>34248</v>
       </c>
     </row>
-    <row r="419" spans="1:85" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:85">
       <c r="A419">
         <v>417</v>
       </c>
@@ -19260,7 +19224,7 @@
         <v>33970</v>
       </c>
     </row>
-    <row r="420" spans="1:85" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:85">
       <c r="A420">
         <v>418</v>
       </c>
@@ -19270,44 +19234,32 @@
       <c r="C420" s="1">
         <v>34409</v>
       </c>
+      <c r="E420" s="1">
+        <v>34421</v>
+      </c>
+      <c r="F420">
+        <v>6500</v>
+      </c>
       <c r="G420" s="1">
-        <v>34414</v>
+        <v>34426</v>
       </c>
       <c r="H420">
-        <v>5650</v>
+        <v>7000</v>
       </c>
       <c r="I420" s="1">
-        <v>34417</v>
+        <v>34459</v>
       </c>
       <c r="J420">
-        <v>6100</v>
+        <v>7800</v>
       </c>
       <c r="K420" s="1">
-        <v>34421</v>
+        <v>34472</v>
       </c>
       <c r="L420">
-        <v>6500</v>
-      </c>
-      <c r="M420" s="1">
-        <v>34426</v>
-      </c>
-      <c r="N420">
-        <v>7000</v>
-      </c>
-      <c r="O420" s="1">
-        <v>34459</v>
-      </c>
-      <c r="P420">
-        <v>7800</v>
-      </c>
-      <c r="Q420" s="1">
-        <v>34472</v>
-      </c>
-      <c r="R420">
-        <v>8300</v>
-      </c>
-    </row>
-    <row r="421" spans="1:85" x14ac:dyDescent="0.4">
+        <v>8300</v>
+      </c>
+    </row>
+    <row r="421" spans="1:85">
       <c r="A421">
         <v>419</v>
       </c>
@@ -19345,7 +19297,7 @@
         <v>34462</v>
       </c>
     </row>
-    <row r="422" spans="1:85" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:85">
       <c r="A422">
         <v>420</v>
       </c>
@@ -19383,7 +19335,7 @@
         <v>34831</v>
       </c>
     </row>
-    <row r="423" spans="1:85" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:85">
       <c r="A423">
         <v>421</v>
       </c>
@@ -19396,29 +19348,29 @@
       <c r="E423" s="1">
         <v>34798</v>
       </c>
-      <c r="M423" s="1">
+      <c r="G423" s="1">
         <v>34807</v>
       </c>
-      <c r="N423">
-        <v>7000</v>
-      </c>
-      <c r="O423" s="1">
+      <c r="H423">
+        <v>7000</v>
+      </c>
+      <c r="I423" s="1">
         <v>34816</v>
       </c>
-      <c r="P423">
+      <c r="J423">
         <v>7800</v>
       </c>
-      <c r="Q423" s="1">
+      <c r="K423" s="1">
         <v>34823</v>
       </c>
-      <c r="R423">
+      <c r="L423">
         <v>8300</v>
       </c>
       <c r="S423" s="1">
         <v>34700</v>
       </c>
     </row>
-    <row r="424" spans="1:85" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:85">
       <c r="A424">
         <v>422</v>
       </c>
@@ -19459,7 +19411,7 @@
         <v>34831</v>
       </c>
     </row>
-    <row r="425" spans="1:85" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:85">
       <c r="A425">
         <v>423</v>
       </c>
@@ -19485,7 +19437,7 @@
         <v>34700</v>
       </c>
     </row>
-    <row r="426" spans="1:85" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:85">
       <c r="A426">
         <v>424</v>
       </c>
@@ -19523,7 +19475,7 @@
         <v>34835</v>
       </c>
     </row>
-    <row r="427" spans="1:85" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:85">
       <c r="A427">
         <v>425</v>
       </c>
@@ -19561,7 +19513,7 @@
         <v>34700</v>
       </c>
     </row>
-    <row r="428" spans="1:85" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:85">
       <c r="A428">
         <v>426</v>
       </c>
@@ -19599,7 +19551,7 @@
         <v>34833</v>
       </c>
     </row>
-    <row r="429" spans="1:85" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:85">
       <c r="A429">
         <v>427</v>
       </c>
@@ -19637,7 +19589,7 @@
         <v>34833</v>
       </c>
     </row>
-    <row r="430" spans="1:85" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:85">
       <c r="A430">
         <v>428</v>
       </c>
@@ -19672,7 +19624,7 @@
         <v>8200</v>
       </c>
     </row>
-    <row r="431" spans="1:85" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:85">
       <c r="A431">
         <v>429</v>
       </c>
@@ -19683,7 +19635,7 @@
         <v>34700</v>
       </c>
     </row>
-    <row r="432" spans="1:85" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:85">
       <c r="A432">
         <v>430</v>
       </c>
@@ -19715,29 +19667,41 @@
         <v>34832</v>
       </c>
     </row>
-    <row r="433" spans="1:89" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:87">
       <c r="A433">
         <v>431</v>
       </c>
       <c r="B433" t="s">
         <v>532</v>
       </c>
+      <c r="C433" s="1">
+        <v>34944</v>
+      </c>
+      <c r="D433">
+        <v>6000</v>
+      </c>
+      <c r="E433" s="1">
+        <v>34948</v>
+      </c>
+      <c r="F433">
+        <v>6500</v>
+      </c>
+      <c r="G433" s="1">
+        <v>34963</v>
+      </c>
+      <c r="H433">
+        <v>7000</v>
+      </c>
+      <c r="I433" s="1">
+        <v>34979</v>
+      </c>
+      <c r="J433">
+        <v>7900</v>
+      </c>
       <c r="K433" s="1">
-        <v>34963</v>
+        <v>34980</v>
       </c>
       <c r="L433">
-        <v>7000</v>
-      </c>
-      <c r="M433" s="1">
-        <v>34979</v>
-      </c>
-      <c r="N433">
-        <v>7900</v>
-      </c>
-      <c r="O433" s="1">
-        <v>34980</v>
-      </c>
-      <c r="P433">
         <v>8350</v>
       </c>
       <c r="S433" s="1">
@@ -19746,9 +19710,6 @@
       <c r="AZ433" s="1">
         <v>34948</v>
       </c>
-      <c r="CG433">
-        <v>6500</v>
-      </c>
       <c r="CH433" s="1">
         <v>34944</v>
       </c>
@@ -19756,7 +19717,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="434" spans="1:89" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:87">
       <c r="A434">
         <v>432</v>
       </c>
@@ -19772,23 +19733,23 @@
       <c r="F434">
         <v>6450</v>
       </c>
-      <c r="M434" s="1">
+      <c r="I434" s="1">
         <v>35182</v>
       </c>
-      <c r="N434">
+      <c r="J434">
         <v>7020</v>
       </c>
-      <c r="O434" s="1">
+      <c r="K434" s="1">
         <v>35195</v>
       </c>
-      <c r="P434">
+      <c r="L434">
         <v>8300</v>
       </c>
       <c r="S434" s="1">
         <v>35065</v>
       </c>
     </row>
-    <row r="435" spans="1:89" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:87">
       <c r="A435">
         <v>433</v>
       </c>
@@ -19801,41 +19762,35 @@
       <c r="D435">
         <v>5200</v>
       </c>
+      <c r="E435" s="1">
+        <v>35165</v>
+      </c>
+      <c r="F435">
+        <v>6400</v>
+      </c>
       <c r="G435" s="1">
-        <v>35065</v>
+        <v>35174</v>
+      </c>
+      <c r="H435">
+        <v>7040</v>
       </c>
       <c r="I435" s="1">
-        <v>35065</v>
-      </c>
-      <c r="M435" s="1">
-        <v>35174</v>
-      </c>
-      <c r="N435">
-        <v>7040</v>
-      </c>
-      <c r="O435" s="1">
         <v>35188</v>
       </c>
-      <c r="P435">
+      <c r="J435">
         <v>7850</v>
       </c>
-      <c r="Q435" s="1">
+      <c r="K435" s="1">
         <v>35194</v>
       </c>
-      <c r="R435">
+      <c r="L435">
         <v>8320</v>
       </c>
       <c r="S435" s="1">
         <v>35065</v>
       </c>
-      <c r="CJ435" s="1">
-        <v>35165</v>
-      </c>
-      <c r="CK435">
-        <v>6400</v>
-      </c>
-    </row>
-    <row r="436" spans="1:89" x14ac:dyDescent="0.4">
+    </row>
+    <row r="436" spans="1:87">
       <c r="A436">
         <v>434</v>
       </c>
@@ -19876,7 +19831,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="437" spans="1:89" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:87">
       <c r="A437">
         <v>435</v>
       </c>
@@ -19917,7 +19872,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="438" spans="1:89" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:87">
       <c r="A438">
         <v>436</v>
       </c>
@@ -19930,22 +19885,22 @@
       <c r="F438">
         <v>6300</v>
       </c>
-      <c r="M438" s="1">
+      <c r="G438" s="1">
         <v>35186</v>
       </c>
-      <c r="N438">
-        <v>7000</v>
-      </c>
-      <c r="O438" s="1">
+      <c r="H438">
+        <v>7000</v>
+      </c>
+      <c r="I438" s="1">
         <v>35200</v>
       </c>
-      <c r="P438">
+      <c r="J438">
         <v>7800</v>
       </c>
-      <c r="Q438" s="1">
+      <c r="K438" s="1">
         <v>35201</v>
       </c>
-      <c r="R438">
+      <c r="L438">
         <v>8300</v>
       </c>
       <c r="S438" s="1">
@@ -19955,7 +19910,7 @@
         <v>35168</v>
       </c>
     </row>
-    <row r="439" spans="1:89" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:87">
       <c r="A439">
         <v>437</v>
       </c>
@@ -19996,7 +19951,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="440" spans="1:89" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:87">
       <c r="A440">
         <v>438</v>
       </c>
@@ -20025,7 +19980,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="441" spans="1:89" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:87">
       <c r="A441">
         <v>439</v>
       </c>
@@ -20063,7 +20018,7 @@
         <v>35334</v>
       </c>
     </row>
-    <row r="442" spans="1:89" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:87">
       <c r="A442">
         <v>440</v>
       </c>
@@ -20101,7 +20056,7 @@
         <v>8300</v>
       </c>
     </row>
-    <row r="443" spans="1:89" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:87">
       <c r="A443">
         <v>441</v>
       </c>
@@ -20154,7 +20109,7 @@
         <v>5800</v>
       </c>
     </row>
-    <row r="444" spans="1:89" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:87">
       <c r="A444">
         <v>442</v>
       </c>
@@ -20189,7 +20144,7 @@
         <v>35579</v>
       </c>
     </row>
-    <row r="445" spans="1:89" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:87">
       <c r="A445">
         <v>443</v>
       </c>
@@ -20230,7 +20185,7 @@
         <v>35431</v>
       </c>
     </row>
-    <row r="446" spans="1:89" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:87">
       <c r="A446">
         <v>444</v>
       </c>
@@ -20271,7 +20226,7 @@
         <v>35572</v>
       </c>
     </row>
-    <row r="447" spans="1:89" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:87">
       <c r="A447">
         <v>445</v>
       </c>
@@ -20284,41 +20239,35 @@
       <c r="D447">
         <v>5200</v>
       </c>
+      <c r="E447" s="1">
+        <v>35526</v>
+      </c>
+      <c r="F447">
+        <v>6400</v>
+      </c>
       <c r="G447" s="1">
-        <v>35524</v>
+        <v>35532</v>
       </c>
       <c r="H447">
-        <v>6000</v>
+        <v>7010</v>
       </c>
       <c r="I447" s="1">
-        <v>35526</v>
+        <v>35538</v>
       </c>
       <c r="J447">
-        <v>6400</v>
+        <v>7800</v>
       </c>
       <c r="K447" s="1">
-        <v>35532</v>
+        <v>35546</v>
       </c>
       <c r="L447">
-        <v>7010</v>
-      </c>
-      <c r="M447" s="1">
-        <v>35538</v>
-      </c>
-      <c r="N447">
-        <v>7800</v>
-      </c>
-      <c r="O447" s="1">
-        <v>35546</v>
-      </c>
-      <c r="P447">
         <v>8300</v>
       </c>
       <c r="S447" s="1">
         <v>35557</v>
       </c>
     </row>
-    <row r="448" spans="1:89" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:87">
       <c r="A448">
         <v>446</v>
       </c>
@@ -20359,7 +20308,7 @@
         <v>35796</v>
       </c>
     </row>
-    <row r="449" spans="1:94" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:94">
       <c r="A449">
         <v>447</v>
       </c>
@@ -20397,7 +20346,7 @@
         <v>35796</v>
       </c>
     </row>
-    <row r="450" spans="1:94" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:94">
       <c r="A450">
         <v>448</v>
       </c>
@@ -20438,7 +20387,7 @@
         <v>35933</v>
       </c>
     </row>
-    <row r="451" spans="1:94" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:94">
       <c r="A451">
         <v>449</v>
       </c>
@@ -20473,7 +20422,7 @@
         <v>35796</v>
       </c>
     </row>
-    <row r="452" spans="1:94" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:94">
       <c r="A452">
         <v>450</v>
       </c>
@@ -20483,35 +20432,35 @@
       <c r="C452" s="1">
         <v>35895</v>
       </c>
-      <c r="M452" s="1">
+      <c r="E452" s="1">
+        <v>35904</v>
+      </c>
+      <c r="F452">
+        <v>6300</v>
+      </c>
+      <c r="G452" s="1">
         <v>35909</v>
       </c>
-      <c r="N452">
+      <c r="H452">
         <v>7028</v>
       </c>
-      <c r="O452" s="1">
+      <c r="I452" s="1">
         <v>35921</v>
       </c>
-      <c r="P452">
+      <c r="J452">
         <v>7780</v>
       </c>
-      <c r="Q452" s="1">
+      <c r="K452" s="1">
         <v>35932</v>
       </c>
-      <c r="R452">
+      <c r="L452">
         <v>8200</v>
       </c>
       <c r="S452" s="1">
         <v>35933</v>
       </c>
-      <c r="CL452" s="1">
-        <v>35904</v>
-      </c>
-      <c r="CM452">
-        <v>6300</v>
-      </c>
-    </row>
-    <row r="453" spans="1:94" x14ac:dyDescent="0.4">
+    </row>
+    <row r="453" spans="1:94">
       <c r="A453">
         <v>451</v>
       </c>
@@ -20521,34 +20470,28 @@
       <c r="C453" s="1">
         <v>35896</v>
       </c>
+      <c r="E453" s="1">
+        <v>35908</v>
+      </c>
+      <c r="F453">
+        <v>6300</v>
+      </c>
       <c r="G453" s="1">
-        <v>35901</v>
+        <v>35918</v>
       </c>
       <c r="H453">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="I453" s="1">
-        <v>35902</v>
+        <v>35932</v>
       </c>
       <c r="J453">
-        <v>4600</v>
-      </c>
-      <c r="M453" s="1">
-        <v>35918</v>
-      </c>
-      <c r="N453">
-        <v>7000</v>
-      </c>
-      <c r="O453" s="1">
-        <v>35932</v>
-      </c>
-      <c r="P453">
         <v>7800</v>
       </c>
-      <c r="Q453" s="1">
+      <c r="K453" s="1">
         <v>35933</v>
       </c>
-      <c r="R453">
+      <c r="L453">
         <v>8200</v>
       </c>
       <c r="S453" s="1">
@@ -20561,7 +20504,7 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="454" spans="1:94" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:94">
       <c r="A454">
         <v>452</v>
       </c>
@@ -20571,47 +20514,38 @@
       <c r="C454" s="1">
         <v>35896</v>
       </c>
+      <c r="D454">
+        <v>5500</v>
+      </c>
+      <c r="E454" s="1">
+        <v>35906</v>
+      </c>
+      <c r="F454">
+        <v>6500</v>
+      </c>
       <c r="G454" s="1">
-        <v>35898</v>
+        <v>35910</v>
       </c>
       <c r="H454">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="I454" s="1">
-        <v>35899</v>
+        <v>35912</v>
       </c>
       <c r="J454">
-        <v>6000</v>
+        <v>7600</v>
       </c>
       <c r="K454" s="1">
-        <v>35906</v>
+        <v>35932</v>
       </c>
       <c r="L454">
-        <v>6500</v>
-      </c>
-      <c r="M454" s="1">
-        <v>35910</v>
-      </c>
-      <c r="N454">
-        <v>7000</v>
-      </c>
-      <c r="O454" s="1">
-        <v>35912</v>
-      </c>
-      <c r="P454">
-        <v>7600</v>
-      </c>
-      <c r="Q454" s="1">
-        <v>35932</v>
-      </c>
-      <c r="R454">
         <v>8300</v>
       </c>
       <c r="S454" s="1">
         <v>35933</v>
       </c>
     </row>
-    <row r="455" spans="1:94" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:94">
       <c r="A455">
         <v>453</v>
       </c>
@@ -20655,7 +20589,7 @@
         <v>5800</v>
       </c>
     </row>
-    <row r="456" spans="1:94" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:94">
       <c r="A456">
         <v>454</v>
       </c>
@@ -20699,7 +20633,7 @@
         <v>5900</v>
       </c>
     </row>
-    <row r="457" spans="1:94" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:94">
       <c r="A457">
         <v>455</v>
       </c>
@@ -20740,7 +20674,7 @@
         <v>35904</v>
       </c>
     </row>
-    <row r="458" spans="1:94" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:94">
       <c r="A458">
         <v>456</v>
       </c>
@@ -20784,7 +20718,7 @@
         <v>35940</v>
       </c>
     </row>
-    <row r="459" spans="1:94" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:94">
       <c r="A459">
         <v>457</v>
       </c>
@@ -20825,7 +20759,7 @@
         <v>35940</v>
       </c>
     </row>
-    <row r="460" spans="1:94" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:94">
       <c r="A460">
         <v>458</v>
       </c>
@@ -20838,32 +20772,32 @@
       <c r="D460">
         <v>5150</v>
       </c>
-      <c r="M460" s="1">
+      <c r="E460" s="1">
+        <v>35906</v>
+      </c>
+      <c r="F460">
+        <v>6400</v>
+      </c>
+      <c r="G460" s="1">
         <v>35909</v>
       </c>
-      <c r="N460">
+      <c r="H460">
         <v>7100</v>
       </c>
-      <c r="O460" s="1">
+      <c r="I460" s="1">
         <v>35913</v>
       </c>
-      <c r="P460">
+      <c r="J460">
         <v>7700</v>
       </c>
-      <c r="Q460" s="1">
+      <c r="K460" s="1">
         <v>35932</v>
       </c>
-      <c r="R460">
+      <c r="L460">
         <v>8200</v>
       </c>
-      <c r="CL460" s="1">
-        <v>35906</v>
-      </c>
-      <c r="CM460">
-        <v>6400</v>
-      </c>
-    </row>
-    <row r="461" spans="1:94" x14ac:dyDescent="0.4">
+    </row>
+    <row r="461" spans="1:94">
       <c r="A461">
         <v>459</v>
       </c>
@@ -20904,7 +20838,7 @@
         <v>35941</v>
       </c>
     </row>
-    <row r="462" spans="1:94" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:94">
       <c r="A462">
         <v>460</v>
       </c>
@@ -20942,7 +20876,7 @@
         <v>36306</v>
       </c>
     </row>
-    <row r="463" spans="1:94" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:94">
       <c r="A463">
         <v>461</v>
       </c>
@@ -20980,7 +20914,7 @@
         <v>36309</v>
       </c>
     </row>
-    <row r="464" spans="1:94" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:94">
       <c r="A464">
         <v>462</v>
       </c>
@@ -21012,7 +20946,7 @@
         <v>36298</v>
       </c>
     </row>
-    <row r="465" spans="1:102" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:102">
       <c r="A465">
         <v>463</v>
       </c>
@@ -21050,7 +20984,7 @@
         <v>36306</v>
       </c>
     </row>
-    <row r="466" spans="1:102" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:102">
       <c r="A466">
         <v>464</v>
       </c>
@@ -21088,7 +21022,7 @@
         <v>36306</v>
       </c>
     </row>
-    <row r="467" spans="1:102" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:102">
       <c r="A467">
         <v>465</v>
       </c>
@@ -21135,7 +21069,7 @@
         <v>36161</v>
       </c>
     </row>
-    <row r="468" spans="1:102" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:102">
       <c r="A468">
         <v>466</v>
       </c>
@@ -21158,7 +21092,7 @@
         <v>36308</v>
       </c>
     </row>
-    <row r="469" spans="1:102" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:102">
       <c r="A469">
         <v>467</v>
       </c>
@@ -21199,7 +21133,7 @@
         <v>36307</v>
       </c>
     </row>
-    <row r="470" spans="1:102" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:102">
       <c r="A470">
         <v>468</v>
       </c>
@@ -21252,7 +21186,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="471" spans="1:102" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:102">
       <c r="A471">
         <v>469</v>
       </c>
@@ -21293,7 +21227,7 @@
         <v>36306</v>
       </c>
     </row>
-    <row r="472" spans="1:102" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:102">
       <c r="A472">
         <v>470</v>
       </c>
@@ -21331,7 +21265,7 @@
         <v>36298</v>
       </c>
     </row>
-    <row r="473" spans="1:102" x14ac:dyDescent="0.4">
+    <row r="473" spans="1:102">
       <c r="A473">
         <v>471</v>
       </c>
@@ -21369,7 +21303,7 @@
         <v>36288</v>
       </c>
     </row>
-    <row r="474" spans="1:102" x14ac:dyDescent="0.4">
+    <row r="474" spans="1:102">
       <c r="A474">
         <v>472</v>
       </c>
